--- a/FILE BÁO CÁO/SUZUKIの生産実績.xlsx
+++ b/FILE BÁO CÁO/SUZUKIの生産実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.25.216.146\d\1. Bao cao moi ngay\2024\THÁNG 11\FILE BÁO CÁO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8B53F3-E3B2-4B6D-8BCE-B9DF7ABE4254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A238849-8D06-4A40-B030-9A6CBC8D9260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{74D3065D-52D4-4200-B231-B93DEECB3A78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74D3065D-52D4-4200-B231-B93DEECB3A78}"/>
   </bookViews>
   <sheets>
     <sheet name="37号ライン" sheetId="14" r:id="rId1"/>
@@ -2189,10 +2189,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94179AFD-4FA8-4234-B361-9EAEFF7DAC65}">
   <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Y1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="AR12" sqref="AR12"/>
+      <selection pane="topRight" activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2686,8 +2686,12 @@
       <c r="AN5" s="5">
         <v>0</v>
       </c>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
+      <c r="AO5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="2:42" ht="21" customHeight="1" thickBot="1">
       <c r="B6" s="33"/>
@@ -2803,8 +2807,12 @@
       <c r="AN6" s="7">
         <v>69</v>
       </c>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
+      <c r="AO6" s="7">
+        <v>90</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
       <c r="B7" s="33"/>
@@ -2920,8 +2928,12 @@
       <c r="AN7" s="3">
         <v>156</v>
       </c>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
+      <c r="AO7" s="3">
+        <v>192</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
       <c r="B8" s="33"/>
@@ -3039,8 +3051,12 @@
       <c r="AN8" s="27">
         <v>148</v>
       </c>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
+      <c r="AO8" s="27">
+        <v>147</v>
+      </c>
+      <c r="AP8" s="27">
+        <v>226</v>
+      </c>
     </row>
     <row r="9" spans="2:42" ht="18.75" hidden="1" customHeight="1">
       <c r="B9" s="33"/>
@@ -3291,8 +3307,12 @@
       <c r="AN12" s="28">
         <v>146</v>
       </c>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
+      <c r="AO12" s="28">
+        <v>145</v>
+      </c>
+      <c r="AP12" s="28">
+        <v>224</v>
+      </c>
     </row>
     <row r="13" spans="2:42">
       <c r="B13" s="33"/>
@@ -3652,8 +3672,12 @@
       <c r="AN15" s="7">
         <v>19</v>
       </c>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
+      <c r="AO15" s="7">
+        <v>18</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="2:42">
       <c r="B16" s="33"/>
@@ -3932,11 +3956,11 @@
       </c>
       <c r="AO17" s="14">
         <f t="shared" ref="AO17:AP17" si="18">(SUM(AO4:AO5)-AO6)/(SUM(AO4:AO5))</f>
-        <v>1</v>
+        <v>0.80434782608695654</v>
       </c>
       <c r="AP17" s="14">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0.89898989898989901</v>
       </c>
     </row>
     <row r="18" spans="2:42" ht="24" customHeight="1">
@@ -4176,8 +4200,12 @@
       <c r="AN19" s="16">
         <v>0.747</v>
       </c>
-      <c r="AO19" s="16"/>
-      <c r="AP19" s="16"/>
+      <c r="AO19" s="16">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AP19" s="16">
+        <v>0.85199999999999998</v>
+      </c>
     </row>
     <row r="20" spans="2:42">
       <c r="B20" s="33"/>
@@ -4454,11 +4482,11 @@
       </c>
       <c r="AO21" s="25">
         <f t="shared" ref="AO21:AP21" si="37">AO8/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>19.173913043478262</v>
       </c>
       <c r="AP21" s="25">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>27.393939393939394</v>
       </c>
     </row>
     <row r="22" spans="2:42" ht="15" thickBot="1">
@@ -4615,11 +4643,11 @@
       </c>
       <c r="AO22" s="17">
         <f t="shared" ref="AO22:AP22" si="56">AO12/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>18.913043478260871</v>
       </c>
       <c r="AP22" s="17">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>27.151515151515152</v>
       </c>
     </row>
     <row r="23" spans="2:42">
@@ -5018,17 +5046,30 @@
       </c>
       <c r="AO25" s="21">
         <f t="shared" ref="AO25:AP25" si="75">AO24/(AO24+AO12)*1000000</f>
-        <v>1000000</v>
-      </c>
-      <c r="AP25" s="21" t="e">
+        <v>6849.3150684931506</v>
+      </c>
+      <c r="AP25" s="21">
         <f t="shared" si="75"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:42" ht="19.149999999999999" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="M2:N2"/>
@@ -5045,19 +5086,6 @@
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5073,7 +5101,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="AR21" sqref="AR21"/>
+      <selection pane="topRight" activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5567,8 +5595,12 @@
       <c r="AN5" s="5">
         <v>30</v>
       </c>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
+      <c r="AO5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="2:42" ht="21" customHeight="1" thickBot="1">
       <c r="B6" s="33"/>
@@ -5684,8 +5716,12 @@
       <c r="AN6" s="7">
         <v>89</v>
       </c>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
+      <c r="AO6" s="7">
+        <v>137</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
       <c r="B7" s="33"/>
@@ -5801,8 +5837,12 @@
       <c r="AN7" s="3">
         <v>156</v>
       </c>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
+      <c r="AO7" s="3">
+        <v>207</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
       <c r="B8" s="33"/>
@@ -5920,8 +5960,12 @@
       <c r="AN8" s="27">
         <v>166</v>
       </c>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
+      <c r="AO8" s="27">
+        <v>144</v>
+      </c>
+      <c r="AP8" s="27">
+        <v>256</v>
+      </c>
     </row>
     <row r="9" spans="2:42" ht="18.75" hidden="1" customHeight="1">
       <c r="B9" s="33"/>
@@ -6172,8 +6216,12 @@
       <c r="AN12" s="28">
         <v>164</v>
       </c>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
+      <c r="AO12" s="28">
+        <v>142</v>
+      </c>
+      <c r="AP12" s="28">
+        <v>254</v>
+      </c>
     </row>
     <row r="13" spans="2:42">
       <c r="B13" s="33"/>
@@ -6533,8 +6581,12 @@
       <c r="AN15" s="7">
         <v>12</v>
       </c>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
+      <c r="AO15" s="7">
+        <v>13</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="2:42">
       <c r="B16" s="33"/>
@@ -6813,11 +6865,11 @@
       </c>
       <c r="AO17" s="14">
         <f t="shared" ref="AO17:AP17" si="17">(SUM(AO4:AO5)-AO6)/(SUM(AO4:AO5))</f>
-        <v>1</v>
+        <v>0.70217391304347831</v>
       </c>
       <c r="AP17" s="14">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.83434343434343439</v>
       </c>
     </row>
     <row r="18" spans="2:42" ht="24" customHeight="1">
@@ -7058,10 +7110,10 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="AO19" s="16">
-        <v>0.01</v>
+        <v>0.626</v>
       </c>
       <c r="AP19" s="16">
-        <v>0.77700000000000002</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="20" spans="2:42">
@@ -7339,11 +7391,11 @@
       </c>
       <c r="AO21" s="25">
         <f t="shared" ref="AO21:AP21" si="35">AO8/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>18.782608695652176</v>
       </c>
       <c r="AP21" s="25">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>31.030303030303031</v>
       </c>
     </row>
     <row r="22" spans="2:42" ht="15" thickBot="1">
@@ -7500,11 +7552,11 @@
       </c>
       <c r="AO22" s="17">
         <f t="shared" ref="AO22:AP22" si="53">AO12/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>18.521739130434781</v>
       </c>
       <c r="AP22" s="17">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>30.787878787878785</v>
       </c>
     </row>
     <row r="23" spans="2:42">
@@ -7903,17 +7955,35 @@
       </c>
       <c r="AO25" s="21">
         <f t="shared" ref="AO25:AP25" si="71">AO24/(AO24+AO12)*1000000</f>
-        <v>1000000</v>
-      </c>
-      <c r="AP25" s="21" t="e">
+        <v>6993.0069930069931</v>
+      </c>
+      <c r="AP25" s="21">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:42" ht="19.149999999999999" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="I2:J2"/>
@@ -7925,24 +7995,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7955,10 +8007,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6CF337-D3AE-4C8D-8957-BC57B8587A94}">
   <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="AE1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="AQ5" sqref="AQ5"/>
+      <selection pane="topRight" activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8417,8 +8469,12 @@
       <c r="AN5" s="5">
         <v>50</v>
       </c>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
+      <c r="AO5" s="5">
+        <v>110</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="2:42" ht="21" customHeight="1" thickBot="1">
       <c r="B6" s="33"/>
@@ -8534,8 +8590,12 @@
       <c r="AN6" s="7">
         <v>30</v>
       </c>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
+      <c r="AO6" s="7">
+        <v>122</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
       <c r="B7" s="33"/>
@@ -8651,8 +8711,12 @@
       <c r="AN7" s="3">
         <v>150</v>
       </c>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
+      <c r="AO7" s="3">
+        <v>180</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
       <c r="B8" s="33"/>
@@ -8770,8 +8834,12 @@
       <c r="AN8" s="27">
         <v>181</v>
       </c>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
+      <c r="AO8" s="27">
+        <v>151</v>
+      </c>
+      <c r="AP8" s="27">
+        <v>187</v>
+      </c>
     </row>
     <row r="9" spans="2:42" ht="18.75" hidden="1" customHeight="1">
       <c r="B9" s="33"/>
@@ -9022,8 +9090,12 @@
       <c r="AN12" s="28">
         <v>179</v>
       </c>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
+      <c r="AO12" s="28">
+        <v>149</v>
+      </c>
+      <c r="AP12" s="28">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="2:42">
       <c r="B13" s="33"/>
@@ -9383,8 +9455,12 @@
       <c r="AN15" s="7">
         <v>10</v>
       </c>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
+      <c r="AO15" s="7">
+        <v>9</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="2:42">
       <c r="B16" s="33"/>
@@ -9663,11 +9739,11 @@
       </c>
       <c r="AO17" s="14">
         <f t="shared" ref="AO17:AP17" si="17">(SUM(AO4:AO5)-AO6)/(SUM(AO4:AO5))</f>
-        <v>1</v>
+        <v>0.78596491228070176</v>
       </c>
       <c r="AP17" s="14">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="18" spans="2:42" ht="24" customHeight="1">
@@ -9907,8 +9983,12 @@
       <c r="AN19" s="16">
         <v>0.73099999999999998</v>
       </c>
-      <c r="AO19" s="16"/>
-      <c r="AP19" s="16"/>
+      <c r="AO19" s="16">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="AP19" s="16">
+        <v>0.76400000000000001</v>
+      </c>
     </row>
     <row r="20" spans="2:42">
       <c r="B20" s="33"/>
@@ -10185,11 +10265,11 @@
       </c>
       <c r="AO21" s="25">
         <f t="shared" ref="AO21:AP21" si="35">AO8/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>15.894736842105262</v>
       </c>
       <c r="AP21" s="25">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>24.129032258064516</v>
       </c>
     </row>
     <row r="22" spans="2:42" ht="15" thickBot="1">
@@ -10346,11 +10426,11 @@
       </c>
       <c r="AO22" s="17">
         <f t="shared" ref="AO22:AP22" si="53">AO12/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>15.684210526315788</v>
       </c>
       <c r="AP22" s="17">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>23.870967741935484</v>
       </c>
     </row>
     <row r="23" spans="2:42">
@@ -10747,19 +10827,37 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="21" t="e">
+      <c r="AO25" s="21">
         <f t="shared" ref="AO25:AP25" si="71">AO24/(AO24+AO12)*1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP25" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="21">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:42" ht="19.149999999999999" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="I2:J2"/>
@@ -10771,24 +10869,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
